--- a/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_6_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.3837179722242</v>
+        <v>94.39368033806761</v>
       </c>
       <c r="D2" t="n">
-        <v>10.53839183555126</v>
+        <v>9.608269987518129</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.70488983536583</v>
+        <v>90.99426174751429</v>
       </c>
       <c r="D3" t="n">
-        <v>9.658792865780383</v>
+        <v>8.16653232599198</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.83142092756336</v>
+        <v>91.13920943331728</v>
       </c>
       <c r="D4" t="n">
-        <v>11.99074895563084</v>
+        <v>9.516693393633419</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.71943762237326</v>
+        <v>90.04192291442696</v>
       </c>
       <c r="D5" t="n">
-        <v>9.230899245170813</v>
+        <v>8.84587141461839</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.31398880238994</v>
+        <v>90.3828261489014</v>
       </c>
       <c r="D6" t="n">
-        <v>9.33515563210411</v>
+        <v>9.1082542111516</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.99336282424086</v>
+        <v>87.90770946297472</v>
       </c>
       <c r="D7" t="n">
-        <v>9.334861670697322</v>
+        <v>9.949613206776631</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.66796990074278</v>
+        <v>85.60516422571359</v>
       </c>
       <c r="D8" t="n">
-        <v>8.698265535226806</v>
+        <v>8.195862748928416</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.39958199964185</v>
+        <v>85.37318739626703</v>
       </c>
       <c r="D9" t="n">
-        <v>9.195455632906574</v>
+        <v>7.480555502501508</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.44899055344287</v>
+        <v>85.99084923065118</v>
       </c>
       <c r="D10" t="n">
-        <v>9.975318946749827</v>
+        <v>9.229635973238803</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.10268759241225</v>
+        <v>82.12222468856311</v>
       </c>
       <c r="D11" t="n">
-        <v>10.15093134451003</v>
+        <v>10.25517667474925</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.93245880107894</v>
+        <v>82.81397221414011</v>
       </c>
       <c r="D12" t="n">
-        <v>9.672025852423104</v>
+        <v>7.828154755124591</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.85086476598275</v>
+        <v>80.46725919723592</v>
       </c>
       <c r="D13" t="n">
-        <v>9.985580239845062</v>
+        <v>10.30153194733828</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.01359334914325</v>
+        <v>80.25082346320065</v>
       </c>
       <c r="D14" t="n">
-        <v>9.416775905229898</v>
+        <v>8.965667165019418</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.17150027450867</v>
+        <v>78.84960744366859</v>
       </c>
       <c r="D15" t="n">
-        <v>8.731835120863394</v>
+        <v>8.6094492818681</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>80.1822099920611</v>
+        <v>77.23605131143418</v>
       </c>
       <c r="D16" t="n">
-        <v>10.21272838088955</v>
+        <v>8.298331457670669</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.1995712200434</v>
+        <v>76.62770821167594</v>
       </c>
       <c r="D17" t="n">
-        <v>9.24031520086573</v>
+        <v>9.207747436868971</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.58857854484739</v>
+        <v>76.70960549854721</v>
       </c>
       <c r="D18" t="n">
-        <v>9.782402013773973</v>
+        <v>9.813053664470804</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.08524125737428</v>
+        <v>73.90346971214211</v>
       </c>
       <c r="D19" t="n">
-        <v>8.670595366613023</v>
+        <v>8.121120177641224</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.43768375892456</v>
+        <v>75.54352957611552</v>
       </c>
       <c r="D20" t="n">
-        <v>9.253641483298171</v>
+        <v>8.213033891604423</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.36788282709158</v>
+        <v>72.15118166054356</v>
       </c>
       <c r="D21" t="n">
-        <v>9.924058039909955</v>
+        <v>9.420274259456829</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.96642265401324</v>
+        <v>74.34017078465243</v>
       </c>
       <c r="D22" t="n">
-        <v>10.08641424224281</v>
+        <v>8.989612096367225</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.36541737692453</v>
+        <v>71.65910781511238</v>
       </c>
       <c r="D23" t="n">
-        <v>8.974395490488339</v>
+        <v>9.334016151093735</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.17825238830918</v>
+        <v>68.54634325801725</v>
       </c>
       <c r="D24" t="n">
-        <v>9.278019047380406</v>
+        <v>9.051863541742511</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.50167008095744</v>
+        <v>67.86269356653087</v>
       </c>
       <c r="D25" t="n">
-        <v>10.25412560528245</v>
+        <v>8.217144602644195</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.25457636642152</v>
+        <v>67.66054269938219</v>
       </c>
       <c r="D26" t="n">
-        <v>9.795057578067505</v>
+        <v>7.498907461748035</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.68316552604989</v>
+        <v>65.3343407596532</v>
       </c>
       <c r="D27" t="n">
-        <v>9.613651614489216</v>
+        <v>9.567554022038403</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.49090638208106</v>
+        <v>65.03541699377291</v>
       </c>
       <c r="D28" t="n">
-        <v>8.544210455906672</v>
+        <v>8.870013844529188</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.29775046223806</v>
+        <v>63.97743868740501</v>
       </c>
       <c r="D29" t="n">
-        <v>9.911801888055809</v>
+        <v>9.869764100205035</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>65.21685632928849</v>
+        <v>63.90577857685031</v>
       </c>
       <c r="D30" t="n">
-        <v>9.592485587873151</v>
+        <v>9.004522588484162</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.40133605568026</v>
+        <v>63.11468575889214</v>
       </c>
       <c r="D31" t="n">
-        <v>8.575955890091626</v>
+        <v>9.265138750261336</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.90185985449217</v>
+        <v>60.50645300539756</v>
       </c>
       <c r="D32" t="n">
-        <v>8.429053703839861</v>
+        <v>9.162096443416514</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.56662223312739</v>
+        <v>60.20140610864087</v>
       </c>
       <c r="D33" t="n">
-        <v>9.849834352347237</v>
+        <v>8.192030764507289</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.30500636765581</v>
+        <v>59.00936848604935</v>
       </c>
       <c r="D34" t="n">
-        <v>8.4969909364308</v>
+        <v>9.569050737108137</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.9982624660136</v>
+        <v>58.09382707187406</v>
       </c>
       <c r="D35" t="n">
-        <v>9.02259425255389</v>
+        <v>9.136245548713237</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.18242605451448</v>
+        <v>57.04089845088589</v>
       </c>
       <c r="D36" t="n">
-        <v>9.609913446694874</v>
+        <v>8.958884480079462</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.16700237576192</v>
+        <v>53.93649567231951</v>
       </c>
       <c r="D37" t="n">
-        <v>8.127483050039748</v>
+        <v>9.146934889207811</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.76988974809219</v>
+        <v>54.50489341895988</v>
       </c>
       <c r="D38" t="n">
-        <v>9.675816713924453</v>
+        <v>8.800037642523618</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.60680370317056</v>
+        <v>54.51484248278663</v>
       </c>
       <c r="D39" t="n">
-        <v>10.16263879325266</v>
+        <v>9.5832848785046</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70318328344606</v>
+        <v>53.94334721537248</v>
       </c>
       <c r="D40" t="n">
-        <v>8.315249822935977</v>
+        <v>7.751896196672931</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.12639029516719</v>
+        <v>51.50387528087504</v>
       </c>
       <c r="D41" t="n">
-        <v>8.116336717898855</v>
+        <v>8.770605774512688</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.02430425464763</v>
+        <v>49.30170906531693</v>
       </c>
       <c r="D42" t="n">
-        <v>9.057629934523639</v>
+        <v>8.687538825823609</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.93779465393127</v>
+        <v>49.57598205298165</v>
       </c>
       <c r="D43" t="n">
-        <v>9.761658679161224</v>
+        <v>8.560666967362947</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.56168007108658</v>
+        <v>47.68200304484206</v>
       </c>
       <c r="D44" t="n">
-        <v>9.141928261584562</v>
+        <v>8.106993287598895</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.06963708124103</v>
+        <v>48.11583728221413</v>
       </c>
       <c r="D45" t="n">
-        <v>8.598951347512246</v>
+        <v>8.914073431892341</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.46912123889405</v>
+        <v>46.31244825084481</v>
       </c>
       <c r="D46" t="n">
-        <v>8.540987891992483</v>
+        <v>9.671908444608459</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.57886630432044</v>
+        <v>47.66916095414351</v>
       </c>
       <c r="D47" t="n">
-        <v>10.03638243728372</v>
+        <v>9.368637180573922</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.37401567676537</v>
+        <v>44.95813344136705</v>
       </c>
       <c r="D48" t="n">
-        <v>10.3989079688111</v>
+        <v>7.815830557533991</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.55733437548935</v>
+        <v>42.13727504501366</v>
       </c>
       <c r="D49" t="n">
-        <v>9.069342532589426</v>
+        <v>8.884564217246156</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.71206094556373</v>
+        <v>42.07219150976439</v>
       </c>
       <c r="D50" t="n">
-        <v>9.057925756927341</v>
+        <v>8.252554027513041</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.84136974217272</v>
+        <v>41.38158739758578</v>
       </c>
       <c r="D51" t="n">
-        <v>9.323345726446743</v>
+        <v>8.538981384726286</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.2404510271368</v>
+        <v>41.028285298636</v>
       </c>
       <c r="D52" t="n">
-        <v>9.676584663549622</v>
+        <v>8.443723366903935</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.12976202989471</v>
+        <v>39.09219936359864</v>
       </c>
       <c r="D53" t="n">
-        <v>9.227084170114713</v>
+        <v>8.214871728500249</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.75210394484706</v>
+        <v>36.98570894795667</v>
       </c>
       <c r="D54" t="n">
-        <v>8.984326956138013</v>
+        <v>8.325160814354868</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.54870970664646</v>
+        <v>36.82085479114106</v>
       </c>
       <c r="D55" t="n">
-        <v>9.483647981536322</v>
+        <v>9.400848664461018</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.9676030626613</v>
+        <v>36.94212383354138</v>
       </c>
       <c r="D56" t="n">
-        <v>10.99614610044235</v>
+        <v>9.311486861263935</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.08670030624528</v>
+        <v>34.20470517897414</v>
       </c>
       <c r="D57" t="n">
-        <v>8.897452488903498</v>
+        <v>9.047142414050988</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.49674393465785</v>
+        <v>36.23221122088464</v>
       </c>
       <c r="D58" t="n">
-        <v>9.801778449779562</v>
+        <v>9.198167732444176</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.29602013735258</v>
+        <v>34.10532505588452</v>
       </c>
       <c r="D59" t="n">
-        <v>8.683720882668704</v>
+        <v>9.112297929644971</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.68837766991838</v>
+        <v>32.6483557850678</v>
       </c>
       <c r="D60" t="n">
-        <v>8.734176977148428</v>
+        <v>9.553609803116732</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.49757460012802</v>
+        <v>30.73232577325891</v>
       </c>
       <c r="D61" t="n">
-        <v>9.592737196331324</v>
+        <v>9.010036410743515</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.95430895060587</v>
+        <v>28.90391232510005</v>
       </c>
       <c r="D62" t="n">
-        <v>8.896102182512523</v>
+        <v>9.722863173249573</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.88510130916048</v>
+        <v>28.90389056706731</v>
       </c>
       <c r="D63" t="n">
-        <v>8.765513052690705</v>
+        <v>9.587715108883261</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.7618629207509</v>
+        <v>26.34529091505353</v>
       </c>
       <c r="D64" t="n">
-        <v>9.660670808535135</v>
+        <v>9.367796398759722</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.03298777383479</v>
+        <v>28.23882369171858</v>
       </c>
       <c r="D65" t="n">
-        <v>8.426808513380847</v>
+        <v>8.836748870132539</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.99189126223206</v>
+        <v>26.21623025446969</v>
       </c>
       <c r="D66" t="n">
-        <v>9.161801703576552</v>
+        <v>8.66935551148484</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.95194934334893</v>
+        <v>23.89832774182004</v>
       </c>
       <c r="D67" t="n">
-        <v>8.156570801549632</v>
+        <v>8.780523610235747</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>22.8605752462628</v>
+        <v>21.96354356482902</v>
       </c>
       <c r="D68" t="n">
-        <v>8.554221885914004</v>
+        <v>9.844837480707874</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.5120885143183</v>
+        <v>21.60233676013892</v>
       </c>
       <c r="D69" t="n">
-        <v>9.602243093129667</v>
+        <v>8.961117028896782</v>
       </c>
     </row>
   </sheetData>
